--- a/LoginCredentials.xlsx
+++ b/LoginCredentials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>SiteUrl</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>EmployeeUserName</t>
+  </si>
+  <si>
+    <t>EmployeePassword</t>
+  </si>
+  <si>
+    <t>DemoTest</t>
+  </si>
+  <si>
+    <t>Test@#12334</t>
+  </si>
+  <si>
+    <t>EmployeeConfirmedPassword</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -151,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -164,6 +185,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -517,16 +539,46 @@
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="nesreen@gmail.com"/>
     <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>